--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/46.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/46.xlsx
@@ -479,13 +479,13 @@
         <v>0.7388780076351954</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.626665071583657</v>
+        <v>-8.876924440403251</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.061140225868748</v>
+        <v>-3.01618125791026</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.436463638140267</v>
+        <v>-5.503509320992745</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>1.055512172703375</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.87129475018131</v>
+        <v>-9.137867128341693</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.155561913963276</v>
+        <v>-3.095808643793638</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.363591880523219</v>
+        <v>-5.448272895303504</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>1.250097994268077</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.690872908073361</v>
+        <v>-9.946369198029645</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.040100895202094</v>
+        <v>-2.9808320402376</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.238285450025059</v>
+        <v>-5.310253838746027</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>1.29196333844751</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.46100143813221</v>
+        <v>-10.70450517868548</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.943728453984148</v>
+        <v>-2.884852368104906</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.445575880918108</v>
+        <v>-5.531893433553607</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>1.220811620344574</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.23977088806661</v>
+        <v>-11.48062998344584</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.79090200291268</v>
+        <v>-2.7402347909152</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.998617754204422</v>
+        <v>-5.086558752392295</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>1.069182922756976</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.90204502731532</v>
+        <v>-12.13394898755081</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.760226737354516</v>
+        <v>-2.710737832612791</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.13786748722902</v>
+        <v>-5.209901337464196</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.8848849260042226</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.39935615075828</v>
+        <v>-12.63856561597946</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.640209597204413</v>
+        <v>-2.58527429448053</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.697874465627132</v>
+        <v>-4.767774270499108</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.7121139507482571</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.37630378880788</v>
+        <v>-13.59916096777974</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.386232014377769</v>
+        <v>-2.343001230394389</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.615353680815732</v>
+        <v>-4.670171152814039</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.5967036270799593</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.1235469734994</v>
+        <v>-14.33886298603442</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.36159230042964</v>
+        <v>-2.328638974177016</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.246910094243877</v>
+        <v>-4.26657473311215</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.5736777286973361</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.82093466896962</v>
+        <v>-15.03792649626839</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.184754565946446</v>
+        <v>-2.148161579503822</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.031947573885577</v>
+        <v>-4.058472579442914</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.6635518634631471</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.48462277692524</v>
+        <v>-15.69678354447541</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.169148540959109</v>
+        <v>-2.146577410859973</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.514709965517505</v>
+        <v>-3.54516266192736</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.8691427593034122</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.45541703263923</v>
+        <v>-16.66293003268058</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.004683032661346</v>
+        <v>-1.974570736125376</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.874155956683216</v>
+        <v>-2.908876743819473</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.174345138621813</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.09856331743618</v>
+        <v>-17.28628075558085</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.722858121690351</v>
+        <v>-1.706689127680819</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.511054029670785</v>
+        <v>-2.518647565318986</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.546840155617241</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.00423645881542</v>
+        <v>-18.1862456529211</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.554281630300286</v>
+        <v>-1.538623236101581</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.915053127406889</v>
+        <v>-1.928590568545234</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.942824187664527</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.92102496530729</v>
+        <v>-19.09536206994771</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.38690963077166</v>
+        <v>-1.387197661434178</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.564127042037264</v>
+        <v>-1.538649420707265</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>2.313902381228463</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.71109307259409</v>
+        <v>-19.87534910404639</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.140447029776166</v>
+        <v>-1.15928685356541</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.036206114550343</v>
+        <v>-1.006316387162683</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.612885222983753</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.69742789178121</v>
+        <v>-20.85864650897422</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.042568973731422</v>
+        <v>-1.062822766227573</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6746228946675529</v>
+        <v>-0.6408316610330579</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.798755282388266</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.53788827270581</v>
+        <v>-21.6957421680685</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8910386606412848</v>
+        <v>-0.9181004506151326</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3064673387582159</v>
+        <v>-0.2609192171718509</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.842471565126434</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.18692609378154</v>
+        <v>-22.35427190870448</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6343247865207201</v>
+        <v>-0.6818498458361857</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07119322901421428</v>
+        <v>0.09108043703079617</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.725146584516409</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.81751686015328</v>
+        <v>-22.97123358781798</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3331625442524954</v>
+        <v>-0.3876788932854427</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3880007731783017</v>
+        <v>0.4207969917968255</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.441529938795378</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.44780650355965</v>
+        <v>-23.60126138516753</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.06230898306286644</v>
+        <v>-0.1307948192279355</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3522456941175478</v>
+        <v>0.3891136189198484</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.000364118196837</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.95845868359834</v>
+        <v>-24.10722652078887</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05336151254378337</v>
+        <v>-0.01335686273765267</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6119446132860261</v>
+        <v>0.6755862973996565</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.41605369179992</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.34190604922681</v>
+        <v>-24.48376115051691</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03415510427497123</v>
+        <v>-0.03211813270984613</v>
       </c>
       <c r="G24" t="n">
-        <v>0.543223115669806</v>
+        <v>0.591350420915991</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7167227612391938</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.61486747117396</v>
+        <v>-24.74744012974928</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3211121979599232</v>
+        <v>0.2524692541607534</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5323303197054898</v>
+        <v>0.5804183480431497</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.0622023052408355</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.63167798802273</v>
+        <v>-24.75187842041262</v>
       </c>
       <c r="F26" t="n">
-        <v>0.334073577773232</v>
+        <v>0.2739799077297094</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3724209327966477</v>
+        <v>0.4344653559635875</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.8821171925664819</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.60828204284457</v>
+        <v>-24.7079144674701</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1525749834783835</v>
+        <v>0.09185288289845801</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3485012955048141</v>
+        <v>0.4099565650438763</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.69699651489452</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.72091512419194</v>
+        <v>-24.80325261676355</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2685858789589182</v>
+        <v>0.2124198997679134</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06065392522662479</v>
+        <v>0.1254739165960106</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.463213743854162</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.76591336905895</v>
+        <v>-24.84300084819103</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2151300064561507</v>
+        <v>0.1847034946519793</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.03450093182704027</v>
+        <v>0.01775044881428847</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.137876376052919</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.53991403740508</v>
+        <v>-24.60413178284374</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08975811444378184</v>
+        <v>0.04194502446579824</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.230086843979586</v>
+        <v>-0.1881783825832209</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.680825989902254</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.06712479718466</v>
+        <v>-24.14400279947128</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08816085349709127</v>
+        <v>0.05008843683335186</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6897968736611134</v>
+        <v>-0.6513578725178057</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.060616902711191</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.1513213967598</v>
+        <v>-24.22222930895059</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1512264762856857</v>
+        <v>0.1167151659948958</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7463294373316866</v>
+        <v>-0.7243998300717954</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.251166173863291</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.72840073806353</v>
+        <v>-23.7966378204746</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06503984667860303</v>
+        <v>0.03292442780784898</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.208985235152602</v>
+        <v>-1.187605504612064</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.23867716866467</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.16704206911884</v>
+        <v>-23.23704661241355</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.09158337221696593</v>
+        <v>-0.111653872473332</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.281883177375333</v>
+        <v>-1.275520318194254</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.018871172528812</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.82479618053328</v>
+        <v>-22.88221902079709</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2828619167345838</v>
+        <v>-0.3087977686640431</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.304297199840368</v>
+        <v>-1.302582108168102</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.599943744628038</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.09923384934766</v>
+        <v>-22.15250642961064</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4143479141740387</v>
+        <v>-0.4301241390983186</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.507280263098489</v>
+        <v>-1.513538383856834</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.002662990878953</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.28690882722992</v>
+        <v>-21.36228121468974</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3508371530888255</v>
+        <v>-0.3604861802831776</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.635231338770678</v>
+        <v>-1.616470068798485</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.256332576778293</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.91215475068836</v>
+        <v>-20.98298410906209</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.405968840355334</v>
+        <v>-0.4294433393505488</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.884508784877142</v>
+        <v>-1.861544885692755</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.403265400868479</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.25825968525835</v>
+        <v>-20.32276546135953</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2573842954045849</v>
+        <v>-0.2702933060065267</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.036863913046309</v>
+        <v>-2.028589577650338</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.485862663349273</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.95426950557631</v>
+        <v>-19.99861313530124</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5382927451766594</v>
+        <v>-0.5555091234135292</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.261907506592738</v>
+        <v>-2.24424599005925</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4530503670188434</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.41912162692076</v>
+        <v>-19.48460932573507</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2603431558468149</v>
+        <v>-0.2814741326333608</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.101867196655478</v>
+        <v>-2.112786177225478</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.370222283246461</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.86124551053197</v>
+        <v>-18.92741400909405</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.001076282672113617</v>
+        <v>-0.03507699315207621</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.073666376334401</v>
+        <v>-2.103857226687421</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>2.238988521730288</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.95794207596708</v>
+        <v>-18.04048904538416</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.01051583302099811</v>
+        <v>-0.04201591365819103</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.962604371328038</v>
+        <v>-2.004800863386921</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>3.034482097813018</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.62296241545868</v>
+        <v>-17.70015463301349</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03600111897565461</v>
+        <v>0.01438572698396487</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.164526958055979</v>
+        <v>-2.21762933838202</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>3.742515416522412</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.11258517377967</v>
+        <v>-17.1907854986533</v>
       </c>
       <c r="F45" t="n">
-        <v>0.006019745468101911</v>
+        <v>-0.02118605983700486</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.206278311818244</v>
+        <v>-2.26518058230317</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>4.363780697004697</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.73559231345217</v>
+        <v>-16.81604451441457</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02455844629198602</v>
+        <v>-0.005134896553048699</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.145608580449685</v>
+        <v>-2.23066927201238</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>4.896424879685253</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.06685057659964</v>
+        <v>-16.15433334418805</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03080347474748936</v>
+        <v>0.01709583367220217</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.435864934450752</v>
+        <v>-2.529776022734453</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>5.347629445218788</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.41693557123352</v>
+        <v>-15.48983351345625</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0002198553092172636</v>
+        <v>-0.008787649045890271</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.369801174311402</v>
+        <v>-2.47058572158701</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>5.726308405487789</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.87986312406023</v>
+        <v>-14.9678041222481</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1513181224055778</v>
+        <v>0.1299776687735643</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.551221214789201</v>
+        <v>-2.679198475067073</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>6.035791818244562</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.18188627496213</v>
+        <v>-14.2726813951695</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2977948065988091</v>
+        <v>0.277148245017407</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.461552032626219</v>
+        <v>-2.627758817201931</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>6.282166280779147</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.41732197361101</v>
+        <v>-13.49338825312144</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2925447931592769</v>
+        <v>0.2736918770671914</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.527432500525784</v>
+        <v>-2.718200445232575</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>6.46595000920574</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.83014528346244</v>
+        <v>-12.89859184271898</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3771865310310359</v>
+        <v>0.352664647808483</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.538207465764525</v>
+        <v>-2.732706716781208</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>6.584389253403431</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.1790650631434</v>
+        <v>-12.23314936618257</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4264397743216094</v>
+        <v>0.4019833526132651</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.557426966336179</v>
+        <v>-2.762622628774551</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>6.636635384111544</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.80128666464539</v>
+        <v>-11.87618772920291</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3170535840789881</v>
+        <v>0.286993656754385</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.662505788943872</v>
+        <v>-2.875622294601489</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>6.619972151385501</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.34687901761477</v>
+        <v>-11.41087419390512</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06799870712083311</v>
+        <v>0.04220687052263276</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.126863586134212</v>
+        <v>-3.354368532614886</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>6.531329859444821</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.90123012118525</v>
+        <v>-10.97600026271435</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1598019346470163</v>
+        <v>0.1235231634725934</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.196226606589677</v>
+        <v>-3.425865598433552</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>6.368758989522309</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.14517581668126</v>
+        <v>-10.21506252925039</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09604241980781035</v>
+        <v>0.06053609450104926</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.56199936338182</v>
+        <v>-3.780758651564221</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>6.133362934807345</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.843267313151053</v>
+        <v>-9.906620966602166</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.07881837694628301</v>
+        <v>-0.1028951218722172</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.595528750959481</v>
+        <v>-3.822732574474795</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>5.827622990112031</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.298653699540932</v>
+        <v>-9.368671335138483</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01242188155770596</v>
+        <v>-0.0257290889230838</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.881124245148893</v>
+        <v>-4.095851104056043</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>5.458459097764361</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.934308003758536</v>
+        <v>-9.008070037968821</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1243141293212811</v>
+        <v>-0.1638790685089773</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.79334035459512</v>
+        <v>-4.008734920947197</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>5.037391365136608</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.406976229899493</v>
+        <v>-8.464569270100247</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1495691815029707</v>
+        <v>-0.1771546635904875</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.195431159470211</v>
+        <v>-4.406911127272612</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>4.575282064646855</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.895512327084623</v>
+        <v>-7.968933961421024</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.09218561814768532</v>
+        <v>-0.124366498532648</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.152697882994817</v>
+        <v>-4.374939723733116</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>4.089748971194228</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.411489891026011</v>
+        <v>-7.493185860758381</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1493989815660282</v>
+        <v>-0.1756883256722142</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.155617466528522</v>
+        <v>-4.37329009357506</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>3.59923936386988</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.060419790325126</v>
+        <v>-7.118759091787857</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3074361691685036</v>
+        <v>-0.3299025608449055</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.404842543423619</v>
+        <v>-4.621899832236595</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>3.120570975826071</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.686189405897228</v>
+        <v>-6.756259410706146</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2531947584952325</v>
+        <v>-0.2809897174282169</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.689678684048212</v>
+        <v>-4.903227235699605</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>2.674834019252005</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.437226175058965</v>
+        <v>-6.511930855073854</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3708029149224578</v>
+        <v>-0.3933085835073849</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.683931163100694</v>
+        <v>-4.886246518913887</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>2.277425292758022</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.27387351250275</v>
+        <v>-6.344126809551451</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4261964482458008</v>
+        <v>-0.4459003640225985</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.800046797003962</v>
+        <v>-4.99178357212104</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>1.941548239909475</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.997599737936645</v>
+        <v>-6.061699652649737</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3953640750535359</v>
+        <v>-0.4095823159396504</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.798410259148747</v>
+        <v>-4.984150759564314</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>1.680639442494476</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.863691664471472</v>
+        <v>-5.92360204227521</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6515411647575898</v>
+        <v>-0.6618448070940283</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.899535206298238</v>
+        <v>-5.078389155419059</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>1.502242263826545</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.625843798745834</v>
+        <v>-5.695010434658673</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5959643391944627</v>
+        <v>-0.6171345928895338</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.767224393779755</v>
+        <v>-4.937450515327877</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>1.412225118278143</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.503326028752961</v>
+        <v>-5.56771397412857</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6958324252711492</v>
+        <v>-0.7091211126555012</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.744561617560727</v>
+        <v>-4.905557665605433</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>1.411266514687894</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.481671359852746</v>
+        <v>-5.555079901886304</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7889841599900301</v>
+        <v>-0.7957921574677277</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.646094407888105</v>
+        <v>-4.790947646528963</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>1.493967795869837</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.515541147304292</v>
+        <v>-5.595705317604181</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8483446610744161</v>
+        <v>-0.8525341979837685</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.459175600216782</v>
+        <v>-4.604670361696884</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>1.651412555551262</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.752629659465109</v>
+        <v>-5.832479614496797</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7400189473619746</v>
+        <v>-0.7490657286256074</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.344722688774413</v>
+        <v>-4.506203152024263</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>1.866304130483255</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.955102122912403</v>
+        <v>-6.023889082042832</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.071489870708795</v>
+        <v>-1.066410057206205</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.178987227101003</v>
+        <v>-4.343806227575493</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>2.119638110991832</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.482931404279431</v>
+        <v>-6.552713378425831</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9831430111328278</v>
+        <v>-0.9778275361790869</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.012858996342341</v>
+        <v>-4.185114424830931</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>2.390329237694588</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.948886462416461</v>
+        <v>-7.015264437824013</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.041901266286494</v>
+        <v>-1.029738516946531</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.933781487178315</v>
+        <v>-4.102292517054171</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>2.656819031056679</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.52374329559097</v>
+        <v>-7.596628145510859</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.134319832046239</v>
+        <v>-1.116710684724117</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.529949406025275</v>
+        <v>-3.715912475589151</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>2.90160868743024</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.949360968672643</v>
+        <v>-8.023555048876704</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.099690691029873</v>
+        <v>-1.07289074711286</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.320826052734384</v>
+        <v>-3.518572194855815</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>3.110804557933776</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.421901455139063</v>
+        <v>-8.493241413323627</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.284606376366412</v>
+        <v>-1.261105692765514</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.952945435184724</v>
+        <v>-3.153584976234175</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>3.276878313550559</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.364193767566611</v>
+        <v>-9.436109787076214</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.208029497045156</v>
+        <v>-1.183285044674294</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.929209090132674</v>
+        <v>-3.144132333582449</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>3.39726636143823</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.19050136911931</v>
+        <v>-10.25335751506244</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.301011031827095</v>
+        <v>-1.27047978160019</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.754387570287106</v>
+        <v>-2.970161813421593</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>3.471899868238298</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02509639837082</v>
+        <v>-11.08228357718348</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.410475775886767</v>
+        <v>-1.367074791966445</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.379685862956906</v>
+        <v>-2.599191412401285</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>3.504796244388533</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.2427591164684</v>
+        <v>-12.28496870083012</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.485573224986907</v>
+        <v>-1.451219022330218</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.275012901737306</v>
+        <v>-2.491232283168412</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>3.501482919088457</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.13111114118804</v>
+        <v>-13.16066046870181</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.584433203744781</v>
+        <v>-1.541765388783596</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.929716506589622</v>
+        <v>-2.156671576350944</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>3.466608199088869</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32454000672558</v>
+        <v>-14.33469963373076</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.795088356468153</v>
+        <v>-1.734287702071177</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.687037581115388</v>
+        <v>-1.897705826141602</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>3.401647408188432</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42794619792341</v>
+        <v>-15.42592998328578</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.836302925813907</v>
+        <v>-1.776287809587435</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.271370058193427</v>
+        <v>-1.491595684294101</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>3.305409208540995</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.84391802716461</v>
+        <v>-16.83199093927579</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.860968824367719</v>
+        <v>-1.795494217856247</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.96601827901585</v>
+        <v>-1.175351109152208</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>3.173057290932134</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.53984256807043</v>
+        <v>-18.49098209386511</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.087740601889256</v>
+        <v>-2.022986072034079</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7565676181539164</v>
+        <v>-0.9720145537173606</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>2.998347865866508</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.15401877003253</v>
+        <v>-20.10404545008566</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.309969350324714</v>
+        <v>-2.250752864571588</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4675026637114465</v>
+        <v>-0.6695168965592797</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>2.777009468006951</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.98213629273126</v>
+        <v>-21.92437305259357</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.52103036443618</v>
+        <v>-2.449520206314673</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6325311410314036</v>
+        <v>-0.8069337071860365</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>2.502343627772838</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.70585579257007</v>
+        <v>-23.63926834031706</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.624236987737507</v>
+        <v>-2.553132691004093</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4537688380304759</v>
+        <v>-0.6332643099905403</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>2.172598873299734</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.78514914528732</v>
+        <v>-25.70755106634441</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.798024215658579</v>
+        <v>-2.745877573439984</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4512420235820228</v>
+        <v>-0.6217954527011882</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>1.79022224186012</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.05390121242719</v>
+        <v>-27.96716470610076</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.670767032037001</v>
+        <v>-2.612899053476572</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.5860141890347509</v>
+        <v>-0.764619384401578</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>1.357365410725373</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.33473747508997</v>
+        <v>-30.24769984579818</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.159358681787376</v>
+        <v>-3.111113545815616</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9724335074082958</v>
+        <v>-1.122759328636995</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.8785882709829047</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.51814082000463</v>
+        <v>-32.42345728585327</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.219085767351331</v>
+        <v>-3.170997739013671</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.197293808714941</v>
+        <v>-1.337695664389611</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.3681551410466987</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.74304676492756</v>
+        <v>-34.65157084497242</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.598317411464768</v>
+        <v>-3.530329082807685</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.432706506112017</v>
+        <v>-1.561560950680285</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1789825002766515</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.24748646782418</v>
+        <v>-37.15573560950936</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.843614797507348</v>
+        <v>-3.776032330238358</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.862971946702503</v>
+        <v>-1.97141549114052</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.733796461991302</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.78233959022213</v>
+        <v>-39.67705129076897</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.738221759631453</v>
+        <v>-3.663739648764873</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.342110953801152</v>
+        <v>-2.442738393442658</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.316799506236098</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.34860114713738</v>
+        <v>-42.26021501065289</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.920440430582596</v>
+        <v>-3.855895377572887</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.705762757532935</v>
+        <v>-2.785560343353255</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.87165085072561</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.59192796215862</v>
+        <v>-44.53172955369237</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.162386187097694</v>
+        <v>-4.090208321531258</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.315248731723809</v>
+        <v>-3.379152261894274</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.460529514757177</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.89566266249158</v>
+        <v>-46.84769246487949</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.306309872236788</v>
+        <v>-4.228463039539886</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.592294952157574</v>
+        <v>-3.641600564659515</v>
       </c>
     </row>
   </sheetData>
